--- a/latest_version/data/data_sources.xlsx
+++ b/latest_version/data/data_sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lennard.welslau\Scripts\Lennard Github\eu-debt-sustainability-analysis\latest_version\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F11033A-2EE2-4CDE-8DB7-E46AAC2A9517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9FC750-1873-4BFA-AA69-4A0D5FC0CCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
   <si>
     <t>Worksheet</t>
   </si>
@@ -135,15 +135,6 @@
     <t>AMECO database, AMECO6, CODE "{country_key}.1.0.0.0.OVGDP"</t>
   </si>
   <si>
-    <t>gdp_gap</t>
-  </si>
-  <si>
-    <t>Output gap</t>
-  </si>
-  <si>
-    <t>AMECO database, AMECO6, CODE "{country_key}.1.0.0.0.AVGDGP"</t>
-  </si>
-  <si>
     <t>gdp_def_pch</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu, "Nom GDP"</t>
   </si>
   <si>
-    <t>Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu, "OutputGapPf"</t>
-  </si>
-  <si>
     <t>esm_data</t>
   </si>
   <si>
@@ -445,6 +433,30 @@
   </si>
   <si>
     <t xml:space="preserve">Data was supplied to Bruegel by the European Commission and cannot be shared directly. For real GDP growth beyond the 5-year horizon of the output gap working group (see above), consult the 2024 Ageing Report (European Commission, 2024), "2024 Ageing Report. Underlying Assumptions and Projection Methodologies" - Potential GDP (growth rate) </t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Decimal between 0 and 1</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>(Annual average,  1 ECU/EUR = ... units of national currency)</t>
+  </si>
+  <si>
+    <t>Billion national currency</t>
+  </si>
+  <si>
+    <t>Percent (100% = 100)</t>
+  </si>
+  <si>
+    <t>Percent of GDP  (100% = 100)</t>
+  </si>
+  <si>
+    <t>Percent of GDP (100% = 100)</t>
   </si>
 </sst>
 </file>
@@ -822,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,15 +845,16 @@
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.109375" customWidth="1"/>
-    <col min="4" max="4" width="103" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,10 +865,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -866,10 +882,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -878,10 +897,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -890,10 +912,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -902,70 +927,88 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -976,10 +1019,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -989,11 +1035,14 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -1001,12 +1050,15 @@
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -1014,12 +1066,15 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>32</v>
@@ -1027,11 +1082,14 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>35</v>
@@ -1039,11 +1097,14 @@
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>38</v>
@@ -1051,11 +1112,14 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>41</v>
@@ -1063,11 +1127,14 @@
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1075,99 +1142,125 @@
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>60</v>
@@ -1176,132 +1269,129 @@
         <v>61</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{BECD890A-6FFA-4446-B99A-A69E710A6DF2}"/>
-    <hyperlink ref="D15:D23" r:id="rId2" display="AMECO database, AMECO6, CODE &quot;{country_key}.1.1.0.0.OVGD&quot;" xr:uid="{826E108A-48FF-488F-AFE6-3A750988E84E}"/>
-    <hyperlink ref="D25" r:id="rId3" display="Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu" xr:uid="{AEC0436E-8EDA-4CC2-A769-703F798AFFD1}"/>
-    <hyperlink ref="D26" r:id="rId4" display="Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu" xr:uid="{EC408CA6-67D5-4135-856C-62AE9F8BE490}"/>
-    <hyperlink ref="D27" r:id="rId5" display="Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu" xr:uid="{85A68771-38C3-4A02-A47B-02B7391B69EE}"/>
-    <hyperlink ref="D28" r:id="rId6" display="Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu" xr:uid="{D237787A-E12B-40B6-8636-48C543C227DC}"/>
-    <hyperlink ref="D35" r:id="rId7" display="Data was supplied to Bruegel by the European Commission and cannot be shared directly. For real GDP growth beyond the 5-year horizon of the output gap working group (see above), consult the 2024 Ageing Report (European Commission, 2024), &quot;The 2024 Ageing Report: country fiches&quot; - Potential GDP (growth rate) " xr:uid="{8846BD65-824A-440E-B6E6-B4DD7F302AAF}"/>
-    <hyperlink ref="D37" r:id="rId8" xr:uid="{51AE76AA-712E-4D39-9512-0C989EADF6EC}"/>
-    <hyperlink ref="D24" r:id="rId9" display="AMECO database, AMECO6, CODE &quot;{country_key}.1.1.0.0.OVGD&quot;" xr:uid="{A724FB14-9107-4382-8156-5CD2245619F3}"/>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{BECD890A-6FFA-4446-B99A-A69E710A6DF2}"/>
+    <hyperlink ref="E15:E22" r:id="rId2" display="AMECO database, AMECO6, CODE &quot;{country_key}.1.1.0.0.OVGD&quot;" xr:uid="{826E108A-48FF-488F-AFE6-3A750988E84E}"/>
+    <hyperlink ref="E24" r:id="rId3" display="Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu" xr:uid="{AEC0436E-8EDA-4CC2-A769-703F798AFFD1}"/>
+    <hyperlink ref="E25" r:id="rId4" display="Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu" xr:uid="{EC408CA6-67D5-4135-856C-62AE9F8BE490}"/>
+    <hyperlink ref="E26" r:id="rId5" display="Output gap working group, EUCAM Spring 2023 results, available via circabc.europa.eu" xr:uid="{85A68771-38C3-4A02-A47B-02B7391B69EE}"/>
+    <hyperlink ref="E33" r:id="rId6" display="Data was supplied to Bruegel by the European Commission and cannot be shared directly. For real GDP growth beyond the 5-year horizon of the output gap working group (see above), consult the 2024 Ageing Report (European Commission, 2024), &quot;The 2024 Ageing Report: country fiches&quot; - Potential GDP (growth rate) " xr:uid="{8846BD65-824A-440E-B6E6-B4DD7F302AAF}"/>
+    <hyperlink ref="E35" r:id="rId7" xr:uid="{51AE76AA-712E-4D39-9512-0C989EADF6EC}"/>
+    <hyperlink ref="E23" r:id="rId8" display="AMECO database, AMECO6, CODE &quot;{country_key}.1.1.0.0.OVGD&quot;" xr:uid="{A724FB14-9107-4382-8156-5CD2245619F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1324,12 +1414,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1345,115 +1435,115 @@
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
